--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Steel/Thomas_Steel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Steel/Thomas_Steel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thomas Steel est un chimiste et un naturaliste amateur écossais, né le 8 septembre 1858 à Glasgow et mort le 17 août 1925 (à 66 ans) à Sydney.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il travaille pour le compte de la Colonial Sugar Refining Company de Sydney de 1882 à 1918. Il dirige la publication d’Australian Naturalist de 1911 jusqu'à sa mort.
 </t>
@@ -542,7 +556,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthony Musgrave (1932). Bibliography of Australian Entomology, 1775-1930, with biographical notes on authors and collectors, Royal Zoological Society of New South Wales (Sydney) : viii + 380.</t>
         </is>
